--- a/Inflation.xlsx
+++ b/Inflation.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be6278a1cd7afa3e/Desktop/COVID_BRICS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{BCF4D350-3620-44CD-980D-CB9CDD47055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A4D4C8A-9938-44D5-9756-D156E2EDA7D4}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{BCF4D350-3620-44CD-980D-CB9CDD47055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C511EC-2436-4CB1-990E-C83ADE1601C1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -175,9 +186,6 @@
     <t>3.9</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>20.8</t>
   </si>
   <si>
@@ -217,9 +225,6 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
     <t>5.3</t>
   </si>
   <si>
@@ -241,9 +246,6 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
@@ -269,6 +271,15 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>South_Africa</t>
+  </si>
+  <si>
+    <t>United_States</t>
   </si>
 </sst>
 </file>
@@ -405,13 +416,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,9 +429,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -754,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,500 +775,532 @@
     <col min="22" max="22" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="11">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>2000</v>
       </c>
-      <c r="C1" s="11">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2001</v>
       </c>
-      <c r="D1" s="11">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>2002</v>
       </c>
-      <c r="E1" s="11">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>2003</v>
       </c>
-      <c r="F1" s="11">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>2004</v>
       </c>
-      <c r="G1" s="11">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>2005</v>
       </c>
-      <c r="H1" s="11">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>2006</v>
       </c>
-      <c r="I1" s="11">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>2007</v>
       </c>
-      <c r="J1" s="11">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>2008</v>
       </c>
-      <c r="K1" s="11">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>2009</v>
       </c>
-      <c r="L1" s="11">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>2010</v>
       </c>
-      <c r="M1" s="11">
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>2011</v>
       </c>
-      <c r="N1" s="11">
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>2012</v>
       </c>
-      <c r="O1" s="11">
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>2013</v>
       </c>
-      <c r="P1" s="11">
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>2014</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>2015</v>
       </c>
-      <c r="R1" s="11">
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>2016</v>
       </c>
-      <c r="S1" s="11">
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>2017</v>
       </c>
-      <c r="T1" s="11">
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>2018</v>
       </c>
-      <c r="U1" s="11">
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>2019</v>
       </c>
-      <c r="V1" s="11">
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>2020</v>
       </c>
-      <c r="W1" s="10">
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="B23" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="E23" s="3">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="4">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4" s="4">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="F23" s="2">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="W7" s="4">
+      <c r="G23" s="3">
         <v>7</v>
       </c>
     </row>
